--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1990772.258810844</v>
+        <v>1986519.779184218</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>413.9075077423441</v>
       </c>
       <c r="H2" t="n">
-        <v>321.501007129925</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607027</v>
+        <v>62.22601572607317</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387716</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>25.34274783460674</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>94.7407701133303</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.6942957103139</v>
+        <v>63.69429571031475</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870321</v>
+        <v>53.80849853870475</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799444</v>
+        <v>10.93507936649088</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>136.6293971077897</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>26.21298983424892</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845039</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724854</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>112.8883054769989</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>90.22592659503607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>137.806184601445</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>74.52922194059501</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664345</v>
+        <v>29.36682762385502</v>
       </c>
       <c r="I6" t="n">
         <v>45.44580843958667</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>197.9039044483179</v>
+        <v>61.59020550332197</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>25.48581794231439</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>91.98466696807201</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110072</v>
       </c>
       <c r="F10" t="n">
-        <v>36.2648330711794</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>146.185049953102</v>
       </c>
       <c r="V13" t="n">
-        <v>176.76214411214</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588585</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>18.70843787977307</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>41.02686156550228</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.1886739667899</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>101.0545458193602</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>107.3741909183123</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>103.2360561910028</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>70.58974991479204</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3514,7 +3514,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>132.2740511637357</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3720,13 +3720,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.3293279847945</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>145.2857567969035</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1204.914540431943</v>
+        <v>1993.182516526919</v>
       </c>
       <c r="C2" t="n">
-        <v>1204.914540431943</v>
+        <v>1624.219999586507</v>
       </c>
       <c r="D2" t="n">
-        <v>1204.914540431943</v>
+        <v>1265.954300979757</v>
       </c>
       <c r="E2" t="n">
-        <v>1204.914540431943</v>
+        <v>880.1660483815124</v>
       </c>
       <c r="F2" t="n">
-        <v>793.9286356423352</v>
+        <v>469.1801435919049</v>
       </c>
       <c r="G2" t="n">
-        <v>375.8402439834017</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297241</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297241</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710376</v>
+        <v>156.4961545710327</v>
       </c>
       <c r="K2" t="n">
-        <v>435.21483510051</v>
+        <v>435.2148351004993</v>
       </c>
       <c r="L2" t="n">
-        <v>833.266631831179</v>
+        <v>833.2666318311612</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537246</v>
+        <v>1292.78249753722</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813671</v>
+        <v>1745.101812813637</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132846</v>
+        <v>2127.026478132805</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935806</v>
+        <v>2415.315960935758</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648621</v>
+        <v>2554.587596648567</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309156</v>
+        <v>2491.7330353091</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815447</v>
+        <v>2491.7330353091</v>
       </c>
       <c r="T2" t="n">
-        <v>2312.716599815447</v>
+        <v>2272.553003759868</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.716599815447</v>
+        <v>2018.78125171339</v>
       </c>
       <c r="V2" t="n">
-        <v>1981.653712471876</v>
+        <v>1993.182516526919</v>
       </c>
       <c r="W2" t="n">
-        <v>1981.653712471876</v>
+        <v>1993.182516526919</v>
       </c>
       <c r="X2" t="n">
-        <v>1981.653712471876</v>
+        <v>1993.182516526919</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.514380496064</v>
+        <v>1993.182516526919</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>840.2866238778042</v>
+        <v>988.652206113561</v>
       </c>
       <c r="C3" t="n">
-        <v>665.8335945966772</v>
+        <v>814.199176832434</v>
       </c>
       <c r="D3" t="n">
-        <v>516.899184935426</v>
+        <v>665.2647671711827</v>
       </c>
       <c r="E3" t="n">
-        <v>357.6617299299705</v>
+        <v>506.0273121657272</v>
       </c>
       <c r="F3" t="n">
-        <v>211.1271719568554</v>
+        <v>359.4927541926121</v>
       </c>
       <c r="G3" t="n">
-        <v>115.4294243676329</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676329</v>
+        <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297241</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687537</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270602</v>
+        <v>295.789454291274</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066847</v>
+        <v>686.2201089708931</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633839</v>
+        <v>1193.813489198041</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631821</v>
+        <v>1642.492908358675</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908698</v>
+        <v>2067.084785635547</v>
       </c>
       <c r="P3" t="n">
-        <v>2547.994353427115</v>
+        <v>2390.854132153959</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648621</v>
+        <v>2554.587596648567</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922658</v>
+        <v>2500.235577922603</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973219</v>
+        <v>2489.190043208976</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.67723425744</v>
+        <v>2290.042816493197</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828303</v>
+        <v>2061.86880706406</v>
       </c>
       <c r="V3" t="n">
-        <v>1678.351116596561</v>
+        <v>1826.716698832317</v>
       </c>
       <c r="W3" t="n">
-        <v>1424.113759868359</v>
+        <v>1572.479342104116</v>
       </c>
       <c r="X3" t="n">
-        <v>1216.262259662826</v>
+        <v>1364.627841898583</v>
       </c>
       <c r="Y3" t="n">
-        <v>1008.501960897872</v>
+        <v>1156.867543133629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.0048455153655</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="C4" t="n">
-        <v>199.0048455153655</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="D4" t="n">
-        <v>199.0048455153655</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297241</v>
+        <v>531.5246431247441</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297241</v>
+        <v>384.6346956268337</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297241</v>
+        <v>215.5790114703841</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297241</v>
+        <v>215.5790114703841</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297241</v>
+        <v>77.56951944231369</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297241</v>
+        <v>51.09175193297135</v>
       </c>
       <c r="K4" t="n">
-        <v>101.030457077189</v>
+        <v>101.0304570771855</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703324</v>
+        <v>220.4612409703259</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486177</v>
+        <v>356.773380248608</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493305</v>
+        <v>495.2789379493177</v>
       </c>
       <c r="O4" t="n">
-        <v>607.194942745577</v>
+        <v>607.1949427455613</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071554</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258924</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="R4" t="n">
-        <v>494.6819017365132</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="S4" t="n">
-        <v>494.6819017365132</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="T4" t="n">
-        <v>494.6819017365132</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="U4" t="n">
-        <v>494.6819017365132</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="V4" t="n">
-        <v>380.6533103456052</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="W4" t="n">
-        <v>380.6533103456052</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6533103456052</v>
+        <v>679.4377367071372</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6533103456052</v>
+        <v>679.4377367071372</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1448.416441918768</v>
+        <v>1663.707924054182</v>
       </c>
       <c r="C5" t="n">
-        <v>1448.416441918768</v>
+        <v>1663.707924054182</v>
       </c>
       <c r="D5" t="n">
-        <v>1090.150743312018</v>
+        <v>1305.442225447431</v>
       </c>
       <c r="E5" t="n">
-        <v>999.0134437210725</v>
+        <v>919.6539728491871</v>
       </c>
       <c r="F5" t="n">
-        <v>588.0275389314648</v>
+        <v>508.6680680595795</v>
       </c>
       <c r="G5" t="n">
-        <v>170.9397571678923</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>475.9481495814319</v>
+        <v>155.0441911359788</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014922</v>
+        <v>707.8574493821779</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1339.57526036549</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>1966.882928425336</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129034</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.35520837856</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164694</v>
+        <v>2347.539466667867</v>
       </c>
       <c r="U5" t="n">
-        <v>2191.324429164694</v>
+        <v>2347.539466667867</v>
       </c>
       <c r="V5" t="n">
-        <v>2191.324429164694</v>
+        <v>2016.476579324296</v>
       </c>
       <c r="W5" t="n">
-        <v>1838.55577389458</v>
+        <v>1663.707924054182</v>
       </c>
       <c r="X5" t="n">
-        <v>1838.55577389458</v>
+        <v>1663.707924054182</v>
       </c>
       <c r="Y5" t="n">
-        <v>1448.416441918768</v>
+        <v>1663.707924054182</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>893.4159553857316</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>718.9629261046047</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>570.0285164433534</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>410.7910614378979</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647829</v>
       </c>
       <c r="G6" t="n">
-        <v>198.067621432882</v>
+        <v>126.8151058240048</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768663</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4658,13 +4658,13 @@
         <v>1183.193318951432</v>
       </c>
       <c r="N6" t="n">
-        <v>1817.37230273047</v>
+        <v>1381.850060604097</v>
       </c>
       <c r="O6" t="n">
-        <v>1976.884615399231</v>
+        <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2400.852383880067</v>
+        <v>2331.625872339688</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,10 +4676,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825065</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>1966.632556336231</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4688,10 +4688,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1269.391591170754</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1061.6312924058</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.0113218252761</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="C7" t="n">
-        <v>216.0113218252761</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="D7" t="n">
-        <v>216.0113218252761</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="E7" t="n">
-        <v>216.0113218252761</v>
+        <v>69.12137432736571</v>
       </c>
       <c r="F7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4755,22 +4755,22 @@
         <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>825.5522713397128</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>625.6493375535331</v>
+        <v>988.9691392361135</v>
       </c>
       <c r="V7" t="n">
-        <v>625.6493375535331</v>
+        <v>988.9691392361135</v>
       </c>
       <c r="W7" t="n">
-        <v>625.6493375535331</v>
+        <v>699.5519691991528</v>
       </c>
       <c r="X7" t="n">
-        <v>397.6597866555157</v>
+        <v>471.5624183011355</v>
       </c>
       <c r="Y7" t="n">
-        <v>397.6597866555157</v>
+        <v>250.7698391576054</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1593.528088680778</v>
+        <v>956.3723032820419</v>
       </c>
       <c r="C8" t="n">
-        <v>1593.528088680778</v>
+        <v>587.4097863416303</v>
       </c>
       <c r="D8" t="n">
-        <v>1567.784838233996</v>
+        <v>229.1440877348797</v>
       </c>
       <c r="E8" t="n">
-        <v>1181.996585635751</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461438</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704327</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.51718528161</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721765007</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1733.111475321975</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1342.972143346164</v>
       </c>
     </row>
     <row r="9">
@@ -4874,37 +4874,37 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370166</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180674</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495403</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508762</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105708</v>
+        <v>1468.399656105703</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281871</v>
+        <v>1800.470091281865</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710444</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676481</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>552.5163874949542</v>
+        <v>461.9138669598626</v>
       </c>
       <c r="C10" t="n">
-        <v>552.5163874949542</v>
+        <v>292.9776840319557</v>
       </c>
       <c r="D10" t="n">
-        <v>552.5163874949542</v>
+        <v>142.86104461962</v>
       </c>
       <c r="E10" t="n">
-        <v>404.6032939125611</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962182</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234363</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1216.838891429098</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1216.838891429098</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232113</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>962.1544032232113</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>734.1648523251939</v>
+        <v>864.3549109336325</v>
       </c>
       <c r="Y10" t="n">
-        <v>734.1648523251939</v>
+        <v>643.5623317901023</v>
       </c>
     </row>
     <row r="11">
@@ -5035,16 +5035,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,37 +5053,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O12" t="n">
-        <v>2297.690135143765</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P12" t="n">
-        <v>2297.690135143765</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U13" t="n">
-        <v>2197.062545487567</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,31 +5290,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998291</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998291</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998291</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998291</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328842</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>4221.331149328842</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>3931.913979291881</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>3703.924428393864</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>3483.131849250334</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
@@ -6080,10 +6080,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6217,31 +6217,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2381.235169913446</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>2876.560776129205</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3473.939263755757</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>4101.537227310364</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>4101.537227310364</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4525.160376805432</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2344.887784772826</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6542,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286973</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>748.5648313007904</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>598.4481918884546</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>451.5582443905442</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>284.3621451054242</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,31 +6697,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6742,7 +6742,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481584</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>4435.461999481584</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6885,25 +6885,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2342.684238942884</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2123.082773965825</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2123.082773965825</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1868.398285759938</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6979,7 +6979,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7025,19 +7025,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1700.311647517212</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>564.5188827892232</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>414.4022433768874</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>216.8470138298251</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7125,22 +7125,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,7 +7162,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7265,7 +7265,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511906</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232838</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
         <v>484.8112968429803</v>
@@ -7368,16 +7368,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1458.760270031681</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W40" t="n">
-        <v>1169.343099994721</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X40" t="n">
-        <v>1169.343099994721</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>948.5505208511906</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="41">
@@ -7393,28 +7393,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2897.617548589219</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4361.225028359656</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>4072.149801703854</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3817.465313497967</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3528.048143461006</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3300.058592562989</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3079.266013419459</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,31 +7645,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069456</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753331</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929399</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9796239950296</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164221</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>390.3974644068452</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>51.34979150038874</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>347.8552377563709</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>282.3928579664021</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>439.9214566933067</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>369.9956874605996</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>140.1515185031419</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>168.7434581780557</v>
+        <v>193.3273467878348</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>-4.09256585965352e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,10 +23472,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="V13" t="n">
-        <v>75.37549921168795</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>121.5862749664508</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.9994244361423</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>40.64330621514739</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>79.97174018228435</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>32.92052192791164</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>77.79022981064182</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>75.84421273177713</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>18.49466557218919</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>34.97276993489209</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.80831533903353</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>72.11969353038478</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>959072.7223020591</v>
+        <v>959072.7223020588</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875339.362223811</v>
+        <v>875339.3622238111</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049979</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049982</v>
@@ -26325,31 +26325,31 @@
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="H2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="K2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="L2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="M2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="N2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830045</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746162094</v>
+        <v>548460.0746161939</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299147</v>
+        <v>225009.9816299295</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230286</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245439</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843829</v>
+        <v>167098.1292843795</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243570887</v>
+        <v>498.7619243606502</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198031</v>
+        <v>247452.3619198071</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467442</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719669</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719668</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
@@ -26441,7 +26441,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719632</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946115</v>
+        <v>80023.31371946009</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905218</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301206.5113504752</v>
+        <v>-301206.5113504631</v>
       </c>
       <c r="C6" t="n">
-        <v>65893.68583587903</v>
+        <v>65893.68583586421</v>
       </c>
       <c r="D6" t="n">
-        <v>56992.59339538097</v>
+        <v>56992.59339538282</v>
       </c>
       <c r="E6" t="n">
-        <v>-51112.72012716625</v>
+        <v>-51460.09938152529</v>
       </c>
       <c r="F6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430204</v>
       </c>
       <c r="G6" t="n">
-        <v>456372.7214973772</v>
+        <v>456025.3422430208</v>
       </c>
       <c r="H6" t="n">
-        <v>456372.7214973778</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="I6" t="n">
-        <v>456372.7214973778</v>
+        <v>456025.3422430205</v>
       </c>
       <c r="J6" t="n">
-        <v>289274.5922129949</v>
+        <v>288927.2129586414</v>
       </c>
       <c r="K6" t="n">
-        <v>455873.9595730205</v>
+        <v>455526.5803186601</v>
       </c>
       <c r="L6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430206</v>
       </c>
       <c r="M6" t="n">
-        <v>323765.4277684509</v>
+        <v>323418.048514094</v>
       </c>
       <c r="N6" t="n">
-        <v>456372.7214973772</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="O6" t="n">
-        <v>456372.7214973777</v>
+        <v>456025.3422430207</v>
       </c>
       <c r="P6" t="n">
-        <v>456372.7214973774</v>
+        <v>456025.3422430205</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817484</v>
+        <v>347.0634059817369</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621551</v>
+        <v>638.6468991621418</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="G4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="G4" t="n">
-        <v>1172.708288099649</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817484</v>
+        <v>347.0634059817369</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563167</v>
+        <v>246.4126943563282</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794765</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241321</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621551</v>
+        <v>638.6468991621418</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937883628</v>
+        <v>1.937932937897017</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621551</v>
+        <v>638.6468991621418</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937883065</v>
+        <v>1.937932937896903</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621551</v>
+        <v>638.6468991621418</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937883628</v>
+        <v>1.937932937897017</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.684898075246906</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548829</v>
+        <v>156.6862937548846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>177.2262711387727</v>
       </c>
       <c r="T2" t="n">
-        <v>216.988231233739</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>302.4095106355281</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,10 +27472,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>41.85623330871205</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046869</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>146.881926413454</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836666</v>
+        <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.629397107789</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601611</v>
+        <v>22.89845080176866</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.75546894845212</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724864</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866934</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
-        <v>225.2714943330123</v>
+        <v>225.2714943330124</v>
       </c>
       <c r="U4" t="n">
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>139.2493378468291</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>291.7044434772257</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>275.1107193444917</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27706,13 +27706,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>70.53999045278887</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>70.53999045278843</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27827,22 +27827,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>88.35675020977911</v>
+        <v>224.670449154775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>329.1972236783686</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>289.9457031041898</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987942</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546845</v>
       </c>
       <c r="F10" t="n">
-        <v>109.1562149517518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
@@ -28073,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790947</v>
+        <v>1.395229772790901</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059529</v>
+        <v>14.28889691059482</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552304</v>
+        <v>53.78959581552126</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284158</v>
+        <v>118.4183829284118</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106566</v>
+        <v>177.4784592106507</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697076</v>
+        <v>220.1777223697003</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415786</v>
+        <v>244.9901398415705</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335209</v>
+        <v>248.9543364335126</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803309</v>
+        <v>235.0805203803231</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645544</v>
+        <v>200.6357853645477</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264785</v>
+        <v>150.6691191264735</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507941</v>
+        <v>87.64310221507651</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747374</v>
+        <v>31.79379844747269</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392374</v>
+        <v>6.107618330392172</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232757</v>
+        <v>0.1116183818232721</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682889</v>
+        <v>0.7465137411682643</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809528</v>
+        <v>7.20975113180929</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110118</v>
+        <v>25.70233714110033</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502682</v>
+        <v>70.52917762502449</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982833022</v>
+        <v>120.5455982832982</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331427024</v>
+        <v>162.088433142697</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600528</v>
+        <v>189.1495562600466</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821858</v>
+        <v>194.1557821821794</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857727</v>
+        <v>177.6146092857668</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323902</v>
+        <v>142.5513827323855</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351704</v>
+        <v>95.29182422351388</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393992</v>
+        <v>46.34933561393839</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389343</v>
+        <v>13.86616532389297</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200251</v>
+        <v>3.008974246200152</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949271</v>
+        <v>0.04911274612949109</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736445</v>
+        <v>0.6258520435736238</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772952</v>
+        <v>5.564393623772768</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946924</v>
+        <v>18.82107781946862</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065666</v>
+        <v>44.2477394806552</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519251</v>
+        <v>72.71262833519009</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730349</v>
+        <v>93.04713018730041</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218501</v>
+        <v>98.10515261218177</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886513</v>
+        <v>95.77243135886197</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711845</v>
+        <v>88.46134157711552</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821603</v>
+        <v>75.69395988821353</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.406574303244</v>
+        <v>52.40657430324227</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468404</v>
+        <v>28.14058370468311</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027887</v>
+        <v>10.90689425027851</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269208</v>
+        <v>2.674095095269119</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0341373841949261</v>
+        <v>0.03413738419492497</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>360.9226811202611</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>289.7537444526272</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>400.5469039565762</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32791,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>270.3182595810202</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33262,16 +33262,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>242.2322097768141</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33283,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>391.9250669264611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33745,22 +33745,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>303.4297552732313</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33985,10 +33985,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34444,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738032</v>
+        <v>106.4690935737993</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368408</v>
+        <v>281.5340207368349</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501708</v>
+        <v>402.0725219501635</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071383</v>
+        <v>464.1574401071302</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489141</v>
+        <v>456.8881972489058</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213895</v>
+        <v>385.7824902213817</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807675</v>
+        <v>291.2014977807608</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119337</v>
+        <v>140.6784199119287</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876896</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215218</v>
+        <v>247.1693963215178</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662874</v>
+        <v>394.374398666282</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880345</v>
+        <v>512.7205860880282</v>
       </c>
       <c r="N3" t="n">
-        <v>542.156444442406</v>
+        <v>453.2115345056912</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180577</v>
+        <v>428.8806841180519</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579971</v>
+        <v>327.0397439579924</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.65984163788426</v>
+        <v>165.3873378733415</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930965</v>
+        <v>50.44313650930724</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476196</v>
+        <v>120.6371554476165</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740256</v>
+        <v>137.6890295740224</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380937</v>
+        <v>139.9046037380905</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911581</v>
+        <v>113.0464694911552</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310952</v>
+        <v>72.97251915310702</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L5" t="n">
-        <v>488.5912537576367</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>454.2807623269672</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>531.1192356108629</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>163.1181257778661</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313267</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820418</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928752</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>418.422987301589</v>
+        <v>443.0068759113671</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667043</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>220.9409070342396</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>151.9123054782682</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>257.9506595121318</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3364854949988</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>103.6778299969399</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36931,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121309</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924728</v>
@@ -37393,22 +37393,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>160.8335108287869</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37563,10 +37563,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,10 +37633,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1986519.779184218</v>
+        <v>1988280.309487005</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11171075.37939688</v>
+        <v>11171075.37939689</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283203</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548845</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607317</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>67.04490851162566</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>25.34274783460674</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031475</v>
+        <v>63.69429571031467</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870475</v>
+        <v>53.8084985387046</v>
       </c>
       <c r="S3" t="n">
-        <v>10.93507936649088</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>50.2738280351726</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3651273148851</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>26.21298983424892</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>14.34522014008515</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>137.806184601445</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>74.04336321777176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>110.9728016511681</v>
       </c>
       <c r="H6" t="n">
-        <v>29.36682762385502</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>61.59020550332197</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>133.3523755412373</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>91.98466696807201</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>11.54770277295398</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247013</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>29.26882934768837</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802337</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.8315678926962</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923704996</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.3646350838587</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110072</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812543241</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784694</v>
+        <v>369.7311006784708</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1539,13 +1539,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>112.5284434523316</v>
       </c>
       <c r="U13" t="n">
-        <v>146.185049953102</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>95.25381996636159</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568140595</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012896</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2089,10 +2089,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722621</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>18.93832930942577</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238338</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701367</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>23.10998325716117</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>286.522998336602</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1.104103879587738e-11</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>142.3575218158167</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3198,7 +3198,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>19.91555826189108</v>
       </c>
       <c r="S34" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027318</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>121.8000472740347</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>132.2740511637357</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310382</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3988,7 +3988,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>34.00490843294684</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1993.182516526919</v>
+        <v>1765.663247519467</v>
       </c>
       <c r="C2" t="n">
-        <v>1624.219999586507</v>
+        <v>1396.700730579055</v>
       </c>
       <c r="D2" t="n">
-        <v>1265.954300979757</v>
+        <v>1038.435031972305</v>
       </c>
       <c r="E2" t="n">
-        <v>880.1660483815124</v>
+        <v>1038.435031972305</v>
       </c>
       <c r="F2" t="n">
-        <v>469.1801435919049</v>
+        <v>627.4491271826973</v>
       </c>
       <c r="G2" t="n">
-        <v>51.09175193297135</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="H2" t="n">
-        <v>51.09175193297135</v>
+        <v>209.3607355237639</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297135</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710327</v>
+        <v>156.496154571033</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004993</v>
+        <v>435.2148351005001</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311612</v>
+        <v>833.2666318311626</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.78249753722</v>
+        <v>1292.782497537222</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813637</v>
+        <v>1745.10181281364</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132805</v>
+        <v>2127.026478132809</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935758</v>
+        <v>2415.315960935763</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648567</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.7330353091</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="S2" t="n">
-        <v>2491.7330353091</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="T2" t="n">
-        <v>2272.553003759868</v>
+        <v>2486.865466838849</v>
       </c>
       <c r="U2" t="n">
-        <v>2018.78125171339</v>
+        <v>2486.865466838849</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.182516526919</v>
+        <v>2155.802579495279</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.182516526919</v>
+        <v>2155.802579495279</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.182516526919</v>
+        <v>2155.802579495279</v>
       </c>
       <c r="Y2" t="n">
-        <v>1993.182516526919</v>
+        <v>1765.663247519467</v>
       </c>
     </row>
     <row r="3">
@@ -4406,37 +4406,37 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297135</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J3" t="n">
-        <v>51.09175193297135</v>
+        <v>120.1765123687506</v>
       </c>
       <c r="K3" t="n">
-        <v>295.789454291274</v>
+        <v>364.8742147270536</v>
       </c>
       <c r="L3" t="n">
-        <v>686.2201089708931</v>
+        <v>755.3048694066733</v>
       </c>
       <c r="M3" t="n">
-        <v>1193.813489198041</v>
+        <v>1262.898249633822</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358675</v>
+        <v>1799.633129631798</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635547</v>
+        <v>2224.22500690867</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153959</v>
+        <v>2390.854132153964</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648567</v>
+        <v>2554.587596648572</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922603</v>
+        <v>2500.235577922608</v>
       </c>
       <c r="S3" t="n">
-        <v>2489.190043208976</v>
+        <v>2340.824460973169</v>
       </c>
       <c r="T3" t="n">
         <v>2290.042816493197</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="C4" t="n">
-        <v>679.4377367071372</v>
+        <v>496.0114324256107</v>
       </c>
       <c r="D4" t="n">
-        <v>679.4377367071372</v>
+        <v>345.8947930132749</v>
       </c>
       <c r="E4" t="n">
-        <v>531.5246431247441</v>
+        <v>197.9816994308818</v>
       </c>
       <c r="F4" t="n">
-        <v>384.6346956268337</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="G4" t="n">
-        <v>215.5790114703841</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="H4" t="n">
-        <v>215.5790114703841</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="I4" t="n">
-        <v>77.56951944231369</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297135</v>
+        <v>51.09175193297145</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771855</v>
+        <v>101.0304570771858</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703259</v>
+        <v>220.4612409703265</v>
       </c>
       <c r="M4" t="n">
-        <v>356.773380248608</v>
+        <v>356.7733802486089</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493177</v>
+        <v>495.2789379493189</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455613</v>
+        <v>607.1949427455628</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071372</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071372</v>
+        <v>679.4377367071389</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.4377367071372</v>
+        <v>664.9476153535176</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1663.707924054182</v>
+        <v>1743.067394926067</v>
       </c>
       <c r="C5" t="n">
-        <v>1663.707924054182</v>
+        <v>1743.067394926067</v>
       </c>
       <c r="D5" t="n">
-        <v>1305.442225447431</v>
+        <v>1384.801696319317</v>
       </c>
       <c r="E5" t="n">
-        <v>919.6539728491871</v>
+        <v>999.0134437210725</v>
       </c>
       <c r="F5" t="n">
-        <v>508.6680680595795</v>
+        <v>588.0275389314648</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4699017954936</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>170.9397571678923</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>615.2768054226851</v>
       </c>
       <c r="M5" t="n">
-        <v>1339.57526036549</v>
+        <v>801.9762182480928</v>
       </c>
       <c r="N5" t="n">
-        <v>1966.882928425336</v>
+        <v>1340.687116518882</v>
       </c>
       <c r="O5" t="n">
-        <v>2416.620883129034</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2527.35520837856</v>
+        <v>2317.163367625254</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2347.539466667867</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="U5" t="n">
-        <v>2347.539466667867</v>
+        <v>2116.533153187147</v>
       </c>
       <c r="V5" t="n">
-        <v>2016.476579324296</v>
+        <v>2116.533153187147</v>
       </c>
       <c r="W5" t="n">
-        <v>1663.707924054182</v>
+        <v>2116.533153187147</v>
       </c>
       <c r="X5" t="n">
-        <v>1663.707924054182</v>
+        <v>1743.067394926067</v>
       </c>
       <c r="Y5" t="n">
-        <v>1663.707924054182</v>
+        <v>1743.067394926067</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857316</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046047</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433534</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378979</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647829</v>
+        <v>264.2565034647824</v>
       </c>
       <c r="G6" t="n">
-        <v>126.8151058240048</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313601</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1159.565353453463</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1358.222095106128</v>
       </c>
       <c r="O6" t="n">
         <v>1907.658103858851</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2331.625872339687</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4676,10 +4676,10 @@
         <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825065</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.632556336231</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
         <v>1731.480448104488</v>
@@ -4688,10 +4688,10 @@
         <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170754</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.6312924058</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.12137432736571</v>
+        <v>514.0410548200049</v>
       </c>
       <c r="C7" t="n">
-        <v>69.12137432736571</v>
+        <v>514.0410548200049</v>
       </c>
       <c r="D7" t="n">
-        <v>69.12137432736571</v>
+        <v>363.9244154076692</v>
       </c>
       <c r="E7" t="n">
-        <v>69.12137432736571</v>
+        <v>216.0113218252761</v>
       </c>
       <c r="F7" t="n">
         <v>69.12137432736571</v>
@@ -4725,7 +4725,7 @@
         <v>69.12137432736571</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4758,19 +4758,19 @@
         <v>1051.181468027348</v>
       </c>
       <c r="U7" t="n">
-        <v>988.9691392361135</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="V7" t="n">
-        <v>988.9691392361135</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>699.5519691991528</v>
+        <v>1051.181468027348</v>
       </c>
       <c r="X7" t="n">
-        <v>471.5624183011355</v>
+        <v>916.4820987937748</v>
       </c>
       <c r="Y7" t="n">
-        <v>250.7698391576054</v>
+        <v>695.6895196502446</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>956.3723032820419</v>
+        <v>863.4584982637871</v>
       </c>
       <c r="C8" t="n">
-        <v>587.4097863416303</v>
+        <v>494.4959813233754</v>
       </c>
       <c r="D8" t="n">
-        <v>229.1440877348797</v>
+        <v>136.2302827166249</v>
       </c>
       <c r="E8" t="n">
-        <v>136.2302827166252</v>
+        <v>136.2302827166249</v>
       </c>
       <c r="F8" t="n">
-        <v>129.2847819674217</v>
+        <v>129.2847819674214</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>117.6204357321143</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362826</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.51718528161</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872947</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923566</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230823</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740848</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721765007</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2532.774854311581</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2324.029212917405</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2324.029212917405</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583055</v>
+        <v>1992.966325573835</v>
       </c>
       <c r="W8" t="n">
-        <v>2106.577233583055</v>
+        <v>1640.197670303721</v>
       </c>
       <c r="X8" t="n">
-        <v>1733.111475321975</v>
+        <v>1640.197670303721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1342.972143346164</v>
+        <v>1250.058338327909</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182519</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057882</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500118</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180662</v>
+        <v>507.2413987429694</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495379</v>
+        <v>801.9449557744422</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1165.206974733664</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1552.49210333061</v>
       </c>
       <c r="O9" t="n">
-        <v>1800.470091281865</v>
+        <v>1884.562538506773</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292608</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598626</v>
+        <v>716.5983551657537</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319557</v>
+        <v>547.6621722378468</v>
       </c>
       <c r="D10" t="n">
-        <v>142.86104461962</v>
+        <v>397.545532825511</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800311</v>
+        <v>249.6324392431179</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>102.7424917452076</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312227</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020483</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693248</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096608</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1123.088724245826</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999038</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171028</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074502</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1347.028950037541</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336325</v>
+        <v>1119.039399139524</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901023</v>
+        <v>898.2468199959934</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,13 +5029,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192616</v>
@@ -5056,31 +5056,31 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2333.297989183966</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5296,10 +5296,10 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5311,10 +5311,10 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>1053.171308869726</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>884.2351259418192</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>734.1184865294834</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>586.2053929470903</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>439.3154454491799</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>272.1193461640599</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1455.612352843496</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>1234.819773699966</v>
       </c>
     </row>
     <row r="17">
@@ -5494,31 +5494,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,37 +5527,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400644</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400644</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400644</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832656</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.06254548756</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510501</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854699</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648812</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611852</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138343</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703041</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5746,46 +5746,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>808.8888553856809</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>639.952672457774</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>489.8360330454383</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>341.9229394630452</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>195.0329919651348</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396411</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359451</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>990.5373202159207</v>
       </c>
     </row>
     <row r="23">
@@ -5977,22 +5977,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684979</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>1815.886107649657</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888944</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876581</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597512</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359445</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>983.340348461428</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693178979</v>
       </c>
     </row>
     <row r="29">
@@ -6451,7 +6451,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,16 +6475,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>352.5519571452614</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M30" t="n">
-        <v>949.9304447718133</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N30" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>948.5505208512017</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232948</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928876</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722989</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722989</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1350.991564824971</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.198985681441</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,7 +6949,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D37" t="n">
-        <v>363.7369613277355</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>363.7369613277355</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>216.8470138298251</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>216.8470138298251</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7642,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7663,34 +7663,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>817.189422194221</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>667.0727827818853</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>519.1596891994922</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>56.30844904164221</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>390.3974644068452</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>159.7352724044638</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>347.8552377563708</v>
       </c>
       <c r="O5" t="n">
-        <v>282.3928579664021</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>360.4564353549286</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605996</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>211.0329012241482</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>193.3273467878348</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154957</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>-2.95569748243736e-13</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>-2.234313208360957e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856552</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>104.8770068749567</v>
       </c>
       <c r="U13" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>45.04089287986227</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,19 +23703,19 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>122.8084169651632</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>146.5858089828431</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610512</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>143.8269525734275</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.49466557218919</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>34.97276993489209</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>166.0397529241845</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>875339.3622238111</v>
+        <v>875339.362223811</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896418</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854213.3132896421</v>
+        <v>854213.3132896418</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896416</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>854213.313289642</v>
+        <v>854213.3132896419</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.313289642</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>854213.3132896419</v>
+        <v>854213.3132896421</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049979</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.619783004</v>
       </c>
       <c r="I2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830043</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161939</v>
+        <v>548460.0746161954</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299295</v>
+        <v>225009.9816299281</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230286</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245442</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843795</v>
+        <v>167098.1292843796</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243606502</v>
+        <v>498.7619243603284</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198071</v>
+        <v>247452.3619198067</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467442</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.368461719669</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719565</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719565</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719614</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719484</v>
       </c>
       <c r="K4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719517</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719635</v>
       </c>
       <c r="M4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719637</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719629</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946009</v>
+        <v>80023.31371946019</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-301206.5113504631</v>
+        <v>-301206.5113504637</v>
       </c>
       <c r="C6" t="n">
-        <v>65893.68583586421</v>
+        <v>65893.68583586573</v>
       </c>
       <c r="D6" t="n">
-        <v>56992.59339538282</v>
+        <v>56992.59339538144</v>
       </c>
       <c r="E6" t="n">
-        <v>-51460.09938152529</v>
+        <v>-51147.45805260209</v>
       </c>
       <c r="F6" t="n">
-        <v>456025.3422430204</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="G6" t="n">
-        <v>456025.3422430208</v>
+        <v>456337.9835719418</v>
       </c>
       <c r="H6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.9835719416</v>
       </c>
       <c r="I6" t="n">
-        <v>456025.3422430205</v>
+        <v>456337.9835719422</v>
       </c>
       <c r="J6" t="n">
-        <v>288927.2129586414</v>
+        <v>289239.8542875624</v>
       </c>
       <c r="K6" t="n">
-        <v>455526.5803186601</v>
+        <v>455839.2216475819</v>
       </c>
       <c r="L6" t="n">
-        <v>456025.3422430206</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="M6" t="n">
-        <v>323418.048514094</v>
+        <v>323730.6898430153</v>
       </c>
       <c r="N6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="O6" t="n">
-        <v>456025.3422430207</v>
+        <v>456337.9835719421</v>
       </c>
       <c r="P6" t="n">
-        <v>456025.3422430205</v>
+        <v>456337.983571942</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817369</v>
+        <v>347.063405981738</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175416</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621418</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,13 +26804,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26825,13 +26825,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817369</v>
+        <v>347.063405981738</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563282</v>
+        <v>246.4126943563271</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.5887917794765</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241324</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621418</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937897017</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621418</v>
+        <v>638.6468991621424</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937896903</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621418</v>
+        <v>638.6468991621431</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937897017</v>
+        <v>1.937932937895653</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548846</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>62.2260157260729</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387727</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>149.9433227221135</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>302.4095106355281</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27508,10 +27508,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>146.881926413454</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>146.8819264134489</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>22.89845080176866</v>
+        <v>49.11144063601743</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845212</v>
+        <v>33.75546894845196</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724864</v>
+        <v>134.8075875324012</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>275.1107193444917</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>177.1114230045289</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.09418201320217</v>
       </c>
       <c r="H6" t="n">
-        <v>70.53999045278843</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27830,16 +27830,16 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>224.670449154775</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>92.35727984779982</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>289.9457031041898</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>301.0185525624053</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>94.18338605110577</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546845</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193718</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>104.7965952039004</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195734</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.6624603617374</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28800,19 +28800,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28851,13 +28851,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29018,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>-5.809605180071106e-12</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -29495,7 +29495,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>-2.736871531077152e-12</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790901</v>
+        <v>1.395229772790905</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059482</v>
+        <v>14.28889691059486</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552126</v>
+        <v>53.78959581552143</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284118</v>
+        <v>118.4183829284122</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106507</v>
+        <v>177.4784592106513</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697003</v>
+        <v>220.177722369701</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415705</v>
+        <v>244.9901398415712</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335126</v>
+        <v>248.9543364335134</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803231</v>
+        <v>235.0805203803238</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645477</v>
+        <v>200.6357853645483</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264735</v>
+        <v>150.669119126474</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507651</v>
+        <v>87.64310221507678</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747269</v>
+        <v>31.79379844747278</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392172</v>
+        <v>6.107618330392191</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232721</v>
+        <v>0.1116183818232724</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682643</v>
+        <v>0.7465137411682666</v>
       </c>
       <c r="H3" t="n">
-        <v>7.20975113180929</v>
+        <v>7.209751131809313</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110033</v>
+        <v>25.70233714110041</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502449</v>
+        <v>70.5291776250247</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832982</v>
+        <v>120.5455982832986</v>
       </c>
       <c r="L3" t="n">
-        <v>162.088433142697</v>
+        <v>162.0884331426975</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600466</v>
+        <v>189.1495562600471</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821794</v>
+        <v>194.15578218218</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857668</v>
+        <v>177.6146092857674</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323855</v>
+        <v>142.5513827323859</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351388</v>
+        <v>95.29182422351418</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393839</v>
+        <v>46.34933561393854</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389297</v>
+        <v>13.86616532389301</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200152</v>
+        <v>3.008974246200161</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949109</v>
+        <v>0.04911274612949124</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736238</v>
+        <v>0.6258520435736258</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772768</v>
+        <v>5.564393623772785</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946862</v>
+        <v>18.82107781946868</v>
       </c>
       <c r="J4" t="n">
-        <v>44.2477394806552</v>
+        <v>44.24773948065534</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519009</v>
+        <v>72.71262833519032</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730041</v>
+        <v>93.04713018730071</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218177</v>
+        <v>98.10515261218207</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886197</v>
+        <v>95.77243135886226</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711552</v>
+        <v>88.46134157711579</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821353</v>
+        <v>75.69395988821375</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324227</v>
+        <v>52.40657430324243</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468311</v>
+        <v>28.1405837046832</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027851</v>
+        <v>10.90689425027855</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269119</v>
+        <v>2.674095095269128</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492497</v>
+        <v>0.03413738419492508</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181069</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336188</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979358</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491908</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857155</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767395</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730021</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342241</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166611</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190659</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147062</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235318</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745119</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389764</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347165</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.40387634380026</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436511</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575846</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178446</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177255</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040601</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762085</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405686</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378635</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.4624964168767</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.7417227624144</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997911</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000194</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675767</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654583</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231076</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335784</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.085617475379</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682324</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227914</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849634</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067965</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154679</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169142</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097488</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759605</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523486</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106958</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529025009</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,13 +32089,13 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>321.1112257697152</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>399.9031616963283</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>618.3341264639744</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737993</v>
+        <v>106.4690935737997</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368349</v>
+        <v>281.5340207368355</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501635</v>
+        <v>402.0725219501642</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071302</v>
+        <v>464.157440107131</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489058</v>
+        <v>456.8881972489066</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213817</v>
+        <v>385.7824902213824</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807608</v>
+        <v>291.2014977807614</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119287</v>
+        <v>140.6784199119292</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>69.78258629876684</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215178</v>
+        <v>247.1693963215181</v>
       </c>
       <c r="L3" t="n">
-        <v>394.374398666282</v>
+        <v>394.3743986662826</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880282</v>
+        <v>512.7205860880288</v>
       </c>
       <c r="N3" t="n">
-        <v>453.2115345056912</v>
+        <v>542.1564444424002</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180519</v>
+        <v>428.8806841180524</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579924</v>
+        <v>168.3122477225195</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733415</v>
+        <v>165.3873378733418</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930724</v>
+        <v>50.44313650930746</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476165</v>
+        <v>120.6371554476168</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740224</v>
+        <v>137.6890295740226</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380905</v>
+        <v>139.9046037380909</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911552</v>
+        <v>113.0464694911555</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310702</v>
+        <v>72.97251915310724</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>544.1524224957469</v>
       </c>
       <c r="O5" t="n">
-        <v>454.2807623269672</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>541.7668761171557</v>
       </c>
       <c r="N6" t="n">
         <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108629</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225045</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.564649540735</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067523</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457294</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376332</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949743</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637963</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402567</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939967</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091791</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676339</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378513</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820418</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928752</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.4246819961242</v>
       </c>
       <c r="P9" t="n">
-        <v>443.0068759113671</v>
+        <v>568.1422977634704</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308552</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870624</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.4247593423496</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831075</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468039</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860251</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295076</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818077</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.8817554580544</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,13 +35737,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,16 +35968,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902418</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>187.136818355385</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>476.2000925419561</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
